--- a/PC TS2 Token Combinations.xlsx
+++ b/PC TS2 Token Combinations.xlsx
@@ -16,7 +16,7 @@
     <t>Tokens Missed</t>
   </si>
   <si>
-    <t>Time Gained</t>
+    <t>TimeSpent</t>
   </si>
   <si>
     <t>Alt 1</t>
@@ -121,7 +121,7 @@
     <t>With arm, without arm</t>
   </si>
   <si>
-    <t>Without arm requires no rocket later</t>
+    <t>Without arm requires no rockets later</t>
   </si>
   <si>
     <t>ASL all tokens</t>
@@ -397,10 +397,10 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -486,16 +486,22 @@
     <xf borderId="9" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="5" fontId="3" numFmtId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="8" fillId="5" fontId="3" numFmtId="46" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="3" numFmtId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="5" fontId="3" numFmtId="46" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="5" fontId="3" numFmtId="46" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="5" fontId="3" numFmtId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="46" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="46" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -519,9 +525,6 @@
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="46" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -530,9 +533,6 @@
     </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="46" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="3" numFmtId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -788,19 +788,19 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -1019,11 +1019,11 @@
       <c r="A14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="19">
-        <v>0.0033912037037037036</v>
-      </c>
-      <c r="C14" s="32">
-        <v>0.0030555555555555553</v>
+      <c r="B14" s="32">
+        <v>0.003414351851851852</v>
+      </c>
+      <c r="C14" s="33">
+        <v>0.0030787037037037037</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1039,7 +1039,7 @@
       <c r="A15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="34">
         <v>0.0021643518518518518</v>
       </c>
       <c r="C15" s="25"/>
@@ -1055,7 +1055,7 @@
       <c r="A16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="34">
         <v>0.0010069444444444444</v>
       </c>
       <c r="C16" s="25"/>
@@ -1071,7 +1071,7 @@
       <c r="A17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="19">
         <v>3.703703703703703E-4</v>
       </c>
       <c r="C17" s="25"/>
@@ -1087,10 +1087,10 @@
       <c r="A18" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="34">
         <v>0.002905092592592593</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="35">
         <v>0.002650462962962963</v>
       </c>
       <c r="D18" s="13"/>
@@ -1107,10 +1107,10 @@
       <c r="A19" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="34">
         <v>0.0027083333333333334</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="35">
         <v>0.002453703703703704</v>
       </c>
       <c r="D19" s="13"/>
@@ -1127,7 +1127,7 @@
       <c r="A20" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="35">
         <v>0.0014583333333333336</v>
       </c>
       <c r="C20" s="13"/>
@@ -1143,7 +1143,7 @@
       <c r="A21" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="35">
         <v>8.449074074074075E-4</v>
       </c>
       <c r="C21" s="13"/>
@@ -1159,7 +1159,7 @@
       <c r="A22" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="36">
         <v>0.001238425925925926</v>
       </c>
       <c r="C22" s="13"/>
@@ -1175,10 +1175,10 @@
       <c r="A23" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="36">
         <v>5.439814814814814E-4</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="37">
         <v>4.398148148148148E-4</v>
       </c>
       <c r="D23" s="13"/>
@@ -1189,129 +1189,129 @@
       <c r="G23" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="36" t="s">
+      <c r="H23" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="38">
+      <c r="B24" s="40">
         <v>0.002199074074074074</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="39">
+      <c r="F24" s="41">
         <v>5.0</v>
       </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
     </row>
     <row r="25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="38">
+      <c r="B25" s="40">
         <v>0.001226851851851852</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="39">
+      <c r="F25" s="41">
         <v>3.0</v>
       </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
     </row>
     <row r="26">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="38">
+      <c r="B26" s="40">
         <v>7.407407407407408E-4</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="39">
+      <c r="F26" s="41">
         <v>2.0</v>
       </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="38">
+      <c r="B27" s="40">
         <v>3.0092592592592606E-4</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="39">
+      <c r="E27" s="42"/>
+      <c r="F27" s="41">
         <v>1.0</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
     </row>
     <row r="28">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="35">
         <v>0.0033912037037037036</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="44">
+      <c r="F28" s="45">
         <v>5.0</v>
       </c>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
     </row>
     <row r="29">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="35">
         <v>0.002534722222222222</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="35">
         <v>0.0024074074074074076</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="44">
+      <c r="F29" s="45">
         <v>3.0</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="46"/>
+      <c r="H29" s="47"/>
     </row>
     <row r="30">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="35">
         <v>0.0011574074074074073</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="35">
         <v>0.0010300925925925924</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="44">
+      <c r="F30" s="45">
         <v>1.0</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31">
       <c r="A31" s="18" t="s">
@@ -1388,98 +1388,98 @@
       <c r="H34" s="22"/>
     </row>
     <row r="35">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="43">
+      <c r="B35" s="35">
         <v>0.003449074074074074</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="35">
         <v>0.0033912037037037036</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="35">
         <v>0.003310185185185185</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E35" s="36">
         <v>0.003287037037037037</v>
       </c>
-      <c r="F35" s="44">
+      <c r="F35" s="45">
         <v>5.0</v>
       </c>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="46"/>
+      <c r="H35" s="47"/>
     </row>
     <row r="36">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="35">
         <v>0.0017592592592592592</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="35">
         <v>0.0016782407407407408</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="35">
         <v>0.0016319444444444443</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="35">
         <v>0.0015509259259259259</v>
       </c>
-      <c r="F36" s="44">
+      <c r="F36" s="45">
         <v>3.0</v>
       </c>
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="H36" s="46"/>
+      <c r="H36" s="47"/>
     </row>
     <row r="37">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="43">
+      <c r="B37" s="35">
         <v>0.0012268518518518518</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="35">
         <v>0.0011458333333333333</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="35">
         <v>0.0010995370370370369</v>
       </c>
-      <c r="E37" s="43">
+      <c r="E37" s="35">
         <v>0.0010185185185185184</v>
       </c>
-      <c r="F37" s="44">
+      <c r="F37" s="45">
         <v>2.0</v>
       </c>
-      <c r="G37" s="45" t="s">
+      <c r="G37" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="46" t="s">
+      <c r="H37" s="47" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="35">
         <v>6.481481481481481E-4</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="35">
         <v>5.671296296296297E-4</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
-      <c r="F38" s="44">
+      <c r="F38" s="45">
         <v>1.0</v>
       </c>
-      <c r="G38" s="45" t="s">
+      <c r="G38" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="H38" s="46" t="s">
+      <c r="H38" s="47" t="s">
         <v>56</v>
       </c>
     </row>

--- a/PC TS2 Token Combinations.xlsx
+++ b/PC TS2 Token Combinations.xlsx
@@ -16,7 +16,7 @@
     <t>Tokens Missed</t>
   </si>
   <si>
-    <t>TimeSpent</t>
+    <t>Time Spent</t>
   </si>
   <si>
     <t>Alt 1</t>
